--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_17-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_17-08.xlsx
@@ -59,6 +59,12 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
     <t>CIPALAFIL 5MG 30 TABS.</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -128,6 +137,12 @@
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -171,6 +186,9 @@
   </si>
   <si>
     <t>TRIMELASMA TOP. CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
     <t>URIBLADON 25 MG XR TAB</t>
@@ -900,11 +918,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -920,17 +938,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -938,7 +956,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -946,17 +964,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -982,7 +1000,7 @@
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -998,13 +1016,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>128.66999999999999</v>
+        <v>21</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1016,7 +1034,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1024,17 +1042,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1050,13 +1068,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>197</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1068,7 +1086,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1076,17 +1094,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1102,13 +1120,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1120,7 +1138,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1128,17 +1146,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1146,7 +1164,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1154,17 +1172,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>51.299999999999997</v>
+        <v>102</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1180,17 +1198,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1198,7 +1216,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1206,13 +1224,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>39</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1238,7 +1256,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1258,13 +1276,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1290,11 +1308,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1310,13 +1328,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1336,17 +1354,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1354,7 +1372,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1362,17 +1380,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1380,7 +1398,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1388,13 +1406,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>39.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1406,7 +1424,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1414,17 +1432,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>80.75</v>
+        <v>450</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1432,7 +1450,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1440,17 +1458,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>-86.5</v>
+        <v>85</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1458,7 +1476,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1466,17 +1484,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>21</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1484,7 +1502,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1492,17 +1510,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>-23</v>
+        <v>80.75</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1510,7 +1528,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1518,13 +1536,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>58</v>
+        <v>-86.5</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1536,7 +1554,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1544,17 +1562,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1562,7 +1580,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1570,17 +1588,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>59</v>
+        <v>-23</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1588,7 +1606,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1596,17 +1614,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1614,7 +1632,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1622,17 +1640,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1640,7 +1658,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1648,17 +1666,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1666,7 +1684,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1674,17 +1692,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1692,7 +1710,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1700,51 +1718,155 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="26.25" customHeight="1">
-      <c r="K40" s="10">
-        <v>2061.1700000000001</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
+        <v>61</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>62</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>60</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c t="s" r="N40" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
         <v>63</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c t="s" r="F41" s="12">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
         <v>64</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c t="s" r="I41" s="14">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>20</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c t="s" r="N41" s="7">
         <v>65</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
+        <v>66</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
+        <v>67</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>14</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c t="s" r="N42" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>68</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
+        <v>45</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>20</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c t="s" r="N43" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="K44" s="10">
+        <v>2195.1700000000001</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="11">
+        <v>69</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c t="s" r="F45" s="12">
+        <v>70</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c t="s" r="I45" s="14">
+        <v>71</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="131">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1860,10 +1982,22 @@
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:N45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
